--- a/uploads/import_sim_ids (4).xlsx
+++ b/uploads/import_sim_ids (4).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Dawood\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2462537E-34E2-46DF-B8B1-4C47DC29BEFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AD02A7E-7BF6-40BB-AAC7-5F214A7BCE78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>sim_id</t>
   </si>
@@ -40,12 +39,30 @@
   </si>
   <si>
     <t>26-4-2019</t>
+  </si>
+  <si>
+    <t>26-3-2020</t>
+  </si>
+  <si>
+    <t>26-4-2020</t>
+  </si>
+  <si>
+    <t>26-3-2021</t>
+  </si>
+  <si>
+    <t>26-4-2021</t>
+  </si>
+  <si>
+    <t>26-3-2022</t>
+  </si>
+  <si>
+    <t>26-4-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3265F665-6DBD-4D90-9C1F-81D328264FE3}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +559,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>535454</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34353</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4543</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
